--- a/src/Data/Assigning.xlsx
+++ b/src/Data/Assigning.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="12">
   <si>
     <t>id</t>
   </si>
@@ -31,13 +31,25 @@
     <t>asd</t>
   </si>
   <si>
-    <t>vs</t>
-  </si>
-  <si>
     <t>das</t>
   </si>
   <si>
-    <t>fa</t>
+    <t>user2</t>
+  </si>
+  <si>
+    <t>user3</t>
+  </si>
+  <si>
+    <t>user4</t>
+  </si>
+  <si>
+    <t>user5</t>
+  </si>
+  <si>
+    <t>user6</t>
+  </si>
+  <si>
+    <t>user7</t>
   </si>
 </sst>
 </file>
@@ -379,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:I3"/>
+      <selection activeCell="C2" sqref="C2:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -417,7 +429,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -425,10 +437,197 @@
         <v>7003</v>
       </c>
       <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>7004</v>
+      </c>
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>7005</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>7006</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7007</v>
+      </c>
+      <c r="B8" t="s">
         <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7008</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>7009</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>7010</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>7011</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>7012</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>7013</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>7014</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>7015</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>7016</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>7017</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>7018</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>7019</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>7020</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/src/Data/Assigning.xlsx
+++ b/src/Data/Assigning.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>id</t>
   </si>
@@ -35,21 +35,6 @@
   </si>
   <si>
     <t>user2</t>
-  </si>
-  <si>
-    <t>user3</t>
-  </si>
-  <si>
-    <t>user4</t>
-  </si>
-  <si>
-    <t>user5</t>
-  </si>
-  <si>
-    <t>user6</t>
-  </si>
-  <si>
-    <t>user7</t>
   </si>
 </sst>
 </file>
@@ -391,10 +376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C21"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -454,182 +439,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>7005</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>7006</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7007</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>7008</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>7009</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>7010</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>7011</v>
-      </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>7012</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>7013</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>7014</v>
-      </c>
-      <c r="B15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>7015</v>
-      </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>7016</v>
-      </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>7017</v>
-      </c>
-      <c r="B18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>7018</v>
-      </c>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>7019</v>
-      </c>
-      <c r="B20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>7020</v>
-      </c>
-      <c r="B21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
